--- a/InputData/cost-outputs/DR/Discount Rate.xlsx
+++ b/InputData/cost-outputs/DR/Discount Rate.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\cost-outputs\DR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\Input Data for India 2.0\cost-outputs\DR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56572341-9847-4027-BE64-09D2D8E180B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23955" windowHeight="13605"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="DR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DR Discount Rate</t>
   </si>
@@ -40,18 +41,6 @@
     <t>Central Electricity Regulatory Commission</t>
   </si>
   <si>
-    <t>http://www.cercind.gov.in/2017/orders/05.pdf</t>
-  </si>
-  <si>
-    <t>Page 5, Item 7</t>
-  </si>
-  <si>
-    <t>CERC RE Tariff Order 2017-18</t>
-  </si>
-  <si>
-    <t>The government uses a single discount rate (9.08%) in its analysis of all</t>
-  </si>
-  <si>
     <t>technologies for the power sector.  This variable is primarily used by the</t>
   </si>
   <si>
@@ -59,12 +48,36 @@
   </si>
   <si>
     <t>is the best choice for this variable.</t>
+  </si>
+  <si>
+    <t>http://www.cercind.gov.in/2019/orders/1-SM-2019Suo-Motu.pdf</t>
+  </si>
+  <si>
+    <t>CERC RE Tariff Order 2019-20</t>
+  </si>
+  <si>
+    <t>Page 17, Item 7</t>
+  </si>
+  <si>
+    <t>This is the annual percentage rate by which future savings (e.g. fuel cost savings) are discounted when</t>
+  </si>
+  <si>
+    <t>making price-driven purchasing decisions in the current year. The value used should be one that is</t>
+  </si>
+  <si>
+    <t>reasonable for people who are looking to buy fuel-consuming capital equipment, such as industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equipment or building components. </t>
+  </si>
+  <si>
+    <t>For India, CERC gives a discount rate norm (9.36%) for all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,6 +150,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>534408</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E4F123-ABAB-462C-82B1-9114F8768D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553199" y="923911"/>
+          <a:ext cx="5392159" cy="2486503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -215,6 +277,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -250,6 +329,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,10 +521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -450,22 +548,22 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,42 +573,60 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>9.0800000000000006E-2</v>
+        <v>9.3600000000000003E-2</v>
       </c>
     </row>
   </sheetData>
